--- a/INPUT-FILES/SHIPLEY/adult-rawToSS.xlsx
+++ b/INPUT-FILES/SHIPLEY/adult-rawToSS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eklaassen\Desktop\Misc\Shipley norms task\Scale standard score tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eklaassen\Desktop\Misc\Shipley norms task\For Dave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDA444-69A5-41F6-A20B-9B820231F825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A78091-B398-42CF-AE07-9766DF7DB378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="204" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -3119,7 +3119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417EA08F-4027-4482-8B10-A2D39C039D7D}">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
@@ -5980,7 +5980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E6DF2A-28C7-4870-BA53-205D563F89E7}">
   <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -8830,7 +8830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44D2C06-88C6-465E-BE1B-95BC267F0801}">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
@@ -11647,7 +11647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51183EB-796C-42DA-98A6-528FC59E03EE}">
   <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
@@ -14453,7 +14453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBDD183-BC91-40BC-BE71-284E8A951EEA}">
   <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
@@ -17257,8 +17257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE2BDC2-04D3-41A6-A375-E2CF06CA0D8F}">
   <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17654,9 +17654,7 @@
       <c r="B28" s="1">
         <v>83</v>
       </c>
-      <c r="C28" s="2">
-        <v>145</v>
-      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>145</v>
       </c>
@@ -17668,12 +17666,8 @@
       <c r="B29" s="1">
         <v>86</v>
       </c>
-      <c r="C29" s="2">
-        <v>145</v>
-      </c>
-      <c r="D29" s="2">
-        <v>145</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -17682,12 +17676,8 @@
       <c r="B30" s="1">
         <v>89</v>
       </c>
-      <c r="C30" s="2">
-        <v>145</v>
-      </c>
-      <c r="D30" s="2">
-        <v>145</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -17696,12 +17686,8 @@
       <c r="B31" s="1">
         <v>92</v>
       </c>
-      <c r="C31" s="2">
-        <v>145</v>
-      </c>
-      <c r="D31" s="2">
-        <v>145</v>
-      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -17710,12 +17696,8 @@
       <c r="B32" s="1">
         <v>94</v>
       </c>
-      <c r="C32" s="2">
-        <v>145</v>
-      </c>
-      <c r="D32" s="2">
-        <v>145</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -17724,12 +17706,8 @@
       <c r="B33" s="1">
         <v>97</v>
       </c>
-      <c r="C33" s="2">
-        <v>145</v>
-      </c>
-      <c r="D33" s="2">
-        <v>145</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -17738,12 +17716,8 @@
       <c r="B34" s="1">
         <v>100</v>
       </c>
-      <c r="C34" s="2">
-        <v>145</v>
-      </c>
-      <c r="D34" s="2">
-        <v>145</v>
-      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -17752,12 +17726,8 @@
       <c r="B35" s="1">
         <v>102</v>
       </c>
-      <c r="C35" s="2">
-        <v>145</v>
-      </c>
-      <c r="D35" s="2">
-        <v>145</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -17766,12 +17736,8 @@
       <c r="B36" s="1">
         <v>105</v>
       </c>
-      <c r="C36" s="2">
-        <v>145</v>
-      </c>
-      <c r="D36" s="2">
-        <v>145</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -17780,12 +17746,8 @@
       <c r="B37" s="1">
         <v>107</v>
       </c>
-      <c r="C37" s="2">
-        <v>145</v>
-      </c>
-      <c r="D37" s="2">
-        <v>145</v>
-      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -17794,12 +17756,8 @@
       <c r="B38" s="1">
         <v>110</v>
       </c>
-      <c r="C38" s="2">
-        <v>145</v>
-      </c>
-      <c r="D38" s="2">
-        <v>145</v>
-      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -17808,12 +17766,8 @@
       <c r="B39" s="1">
         <v>113</v>
       </c>
-      <c r="C39" s="2">
-        <v>145</v>
-      </c>
-      <c r="D39" s="2">
-        <v>145</v>
-      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -17822,12 +17776,8 @@
       <c r="B40" s="1">
         <v>115</v>
       </c>
-      <c r="C40" s="2">
-        <v>145</v>
-      </c>
-      <c r="D40" s="2">
-        <v>145</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -17836,12 +17786,8 @@
       <c r="B41" s="1">
         <v>118</v>
       </c>
-      <c r="C41" s="2">
-        <v>145</v>
-      </c>
-      <c r="D41" s="2">
-        <v>145</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -17850,12 +17796,8 @@
       <c r="B42" s="1">
         <v>120</v>
       </c>
-      <c r="C42" s="2">
-        <v>145</v>
-      </c>
-      <c r="D42" s="2">
-        <v>145</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -20265,7 +20207,7 @@
   <dimension ref="A1:F256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20661,9 +20603,7 @@
       <c r="B28" s="1">
         <v>87</v>
       </c>
-      <c r="C28" s="2">
-        <v>145</v>
-      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>145</v>
       </c>
@@ -20675,12 +20615,8 @@
       <c r="B29" s="1">
         <v>89</v>
       </c>
-      <c r="C29" s="2">
-        <v>145</v>
-      </c>
-      <c r="D29" s="2">
-        <v>145</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -20689,12 +20625,8 @@
       <c r="B30" s="1">
         <v>91</v>
       </c>
-      <c r="C30" s="2">
-        <v>145</v>
-      </c>
-      <c r="D30" s="2">
-        <v>145</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -20703,12 +20635,8 @@
       <c r="B31" s="1">
         <v>94</v>
       </c>
-      <c r="C31" s="2">
-        <v>145</v>
-      </c>
-      <c r="D31" s="2">
-        <v>145</v>
-      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -20717,12 +20645,8 @@
       <c r="B32" s="1">
         <v>96</v>
       </c>
-      <c r="C32" s="2">
-        <v>145</v>
-      </c>
-      <c r="D32" s="2">
-        <v>145</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -20731,12 +20655,8 @@
       <c r="B33" s="1">
         <v>98</v>
       </c>
-      <c r="C33" s="2">
-        <v>145</v>
-      </c>
-      <c r="D33" s="2">
-        <v>145</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -20745,12 +20665,8 @@
       <c r="B34" s="1">
         <v>101</v>
       </c>
-      <c r="C34" s="2">
-        <v>145</v>
-      </c>
-      <c r="D34" s="2">
-        <v>145</v>
-      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -20759,12 +20675,8 @@
       <c r="B35" s="1">
         <v>103</v>
       </c>
-      <c r="C35" s="2">
-        <v>145</v>
-      </c>
-      <c r="D35" s="2">
-        <v>145</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -20773,12 +20685,8 @@
       <c r="B36" s="1">
         <v>105</v>
       </c>
-      <c r="C36" s="2">
-        <v>145</v>
-      </c>
-      <c r="D36" s="2">
-        <v>145</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -20787,12 +20695,8 @@
       <c r="B37" s="1">
         <v>108</v>
       </c>
-      <c r="C37" s="2">
-        <v>145</v>
-      </c>
-      <c r="D37" s="2">
-        <v>145</v>
-      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -20801,12 +20705,8 @@
       <c r="B38" s="1">
         <v>110</v>
       </c>
-      <c r="C38" s="2">
-        <v>145</v>
-      </c>
-      <c r="D38" s="2">
-        <v>145</v>
-      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -20815,12 +20715,8 @@
       <c r="B39" s="1">
         <v>113</v>
       </c>
-      <c r="C39" s="2">
-        <v>145</v>
-      </c>
-      <c r="D39" s="2">
-        <v>145</v>
-      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -20829,12 +20725,8 @@
       <c r="B40" s="1">
         <v>115</v>
       </c>
-      <c r="C40" s="2">
-        <v>145</v>
-      </c>
-      <c r="D40" s="2">
-        <v>145</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -20843,12 +20735,8 @@
       <c r="B41" s="1">
         <v>118</v>
       </c>
-      <c r="C41" s="2">
-        <v>145</v>
-      </c>
-      <c r="D41" s="2">
-        <v>145</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -20857,12 +20745,8 @@
       <c r="B42" s="1">
         <v>120</v>
       </c>
-      <c r="C42" s="2">
-        <v>145</v>
-      </c>
-      <c r="D42" s="2">
-        <v>145</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">

--- a/INPUT-FILES/SHIPLEY/adult-rawToSS.xlsx
+++ b/INPUT-FILES/SHIPLEY/adult-rawToSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eklaassen\Desktop\Misc\Shipley norms task\For Dave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A78091-B398-42CF-AE07-9766DF7DB378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80596614-4A2D-4851-8E9B-35FE3847A3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="204" sheetId="1" r:id="rId1"/>
@@ -14453,8 +14453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBDD183-BC91-40BC-BE71-284E8A951EEA}">
   <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15449,7 +15449,7 @@
         <v>112</v>
       </c>
       <c r="E84" s="2">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2">
         <v>45</v>
@@ -20206,7 +20206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CAE845-673F-42DD-9ED8-0E493A13D10F}">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
